--- a/mvn-project/src/test/resources/testdata/purnatestdata.xlsx
+++ b/mvn-project/src/test/resources/testdata/purnatestdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22605" windowHeight="8100" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="7425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="supp" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="F1:U25"/>
+  <oleSize ref="A1:M22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
